--- a/static/file/Cash-flows-13.xlsx
+++ b/static/file/Cash-flows-13.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,32 +558,32 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>525,000.00</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>535,500.00</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>546,210.00</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>557,134.20</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>568,276.88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>579,642.42</t>
         </is>
       </c>
     </row>
@@ -595,32 +595,32 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120,000.00</t>
         </is>
       </c>
     </row>
@@ -632,32 +632,32 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>257.00</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>257.00</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>257.00</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>257.00</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>257.00</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>257.00</t>
         </is>
       </c>
     </row>
@@ -669,32 +669,32 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>645,257.00</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>655,757.00</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>666,467.00</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>677,391.20</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>688,533.88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>699,899.42</t>
         </is>
       </c>
     </row>
@@ -728,32 +728,32 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6,300.00</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6,489.00</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6,683.67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6,884.18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7,090.71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7,303.43</t>
         </is>
       </c>
     </row>
@@ -765,32 +765,32 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9,000.00</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9,270.00</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9,548.10</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9,834.54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10,129.58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10,433.47</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15,300.00</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15,759.00</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>16,231.77</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>16,718.72</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>17,220.28</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>17,736.89</t>
         </is>
       </c>
     </row>
@@ -839,32 +839,32 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>90,000.00</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>92,700.00</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>95,481.00</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>98,345.43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>101,295.79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>104,334.67</t>
         </is>
       </c>
     </row>
@@ -876,32 +876,32 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>105,300.00</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>108,459.00</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>111,712.77</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>115,064.15</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>118,516.08</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>122,071.56</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>539,957.00</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>547,298.00</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>554,754.23</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>562,327.05</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>570,017.81</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>577,827.86</t>
         </is>
       </c>
     </row>
@@ -950,32 +950,32 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>539,957.00</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1,087,255.00</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1,642,009.23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2,204,336.28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2,774,354.08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3,358,171.18</t>
         </is>
       </c>
     </row>
@@ -995,341 +995,415 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ค่าเทอมลูก</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>แต่งงาน</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>รวมรายจ่ายเพื่อบรรลุเป้าหมายทางการเงิน</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>กระแสเงินสดสุทธิคงเหลือหลังเป้าหมาย</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>ซื้อคอนโด</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
+          <t>รวมรายจ่ายเพื่อบรรลุเป้าหมายทางการเงิน</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>520,000.00</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>520,000.00</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>820,000.00</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>520,000.00</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>3,520,000.00</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>520,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>กระแสเงินสดสุทธิคงเหลือหลังเป้าหมาย</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>19,957.00</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>27,298.00</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>-265,245.77</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>42,327.05</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>-2,949,982.19</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>57,827.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
           <t>กระแสเงินสดสุทธิคงเหลือหลังเป้าหมาย(ทบยอด)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>19,957.00</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>567,255.00</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>822,009.23</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>1,684,336.28</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>-745,645.92</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>2,838,171.18</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>วางแผนเกษียณ</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>ปัจจุบัน</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>2567</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>อายุปัจจุบัน</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>อายุที่คาดว่าจะเกษียณ</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>อายุที่คาดว่าจะเสียชีวิต</t>
+          <t>อายุปัจจุบัน</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>รายจ่ายต่อปี</t>
+          <t>อายุที่คาดว่าจะเกษียณ</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>เงินเฟ้อ</t>
+          <t>อายุที่คาดว่าจะเสียชีวิต</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>จำนวนเงินที่ต้องมี ณ วันแรกที่เกษียณ(รายจ่าย ณ วันเกษียณ)</t>
+          <t>รายจ่ายต่อปี</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>105,300.00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>อัตราผลตอบแทนหลังเกษียณ</t>
+          <t>เงินเฟ้อ</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>%5</t>
+          <t>3%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
+          <t>จำนวนเงินที่ต้องมี ณ วันแรกที่เกษียณ(รายจ่าย ณ วันเกษียณ)</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>323,774.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>อัตราผลตอบแทนหลังเกษียณ</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>%5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
           <t>Discount Rate</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>1.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>เงินที่ต้องมีไว้ใช้หลังเกษียณ</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>เงินออมปัจจุบัน</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>เงินที่จะมีตอนเกษียณ</t>
+          <t>เงินที่ต้องมีไว้ใช้หลังเกษียณ</t>
         </is>
       </c>
       <c r="B36" s="7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5,324,051.28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
+          <t>เงินออมปัจจุบัน</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>2,450,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>เงินที่จะมีตอนเกษียณ</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>35,499,286.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
           <t>ขาดไป</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B39" s="9" t="inlineStr">
         <is>
           <t>เงินเพียงพอสำหรับการเกษียณ</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>ต้องออมเพิ่มขึ้นปีละ</t>
         </is>
       </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>-0.18</t>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>537,739.77</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
